--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50041.62457446439</v>
+        <v>50214.1355136127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22668979.22872371</v>
+        <v>22820328.59386845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20794688.49810569</v>
+        <v>20785327.95165949</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1766638.888072582</v>
+        <v>1763547.92407774</v>
       </c>
     </row>
     <row r="11">
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>37.28507488358404</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>35.12399553673127</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>28.47824703393654</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>18.73185804160391</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>17.14749202420371</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>21.64722461951303</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>32.58945119244859</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>44.18035332317012</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>60.63953250900509</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>29.90494529109833</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>19.13988639553256</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>6.785808794917685</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>3.697650023750555</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>10.87667177962185</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>27.69225648436268</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>44.89460795773296</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>37.96713772285098</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>30.12158188642509</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>26.31106434786214</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>26.40839431103658</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>22.56601930391407</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>29.15327125498115</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>32.74373904234409</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>45.41052227552</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.2163880441079</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>303.4508422388722</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>69.11834381539616</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>124.2523906577833</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>218.1256748333563</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4559177653259</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6930234561154</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>67.84558205340525</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>12.71905894793251</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>102.6901904232857</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>156.8327176907766</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3623561674602</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.3874202901603</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>146.4179569850202</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>109.4547270939081</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>75.85590789965747</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>181.2085322879926</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>236.3394386278895</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9597768771433</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152782.159184039</v>
+        <v>147429.6096337837</v>
       </c>
     </row>
   </sheetData>
@@ -26326,10 +26328,10 @@
         <v>33951.59092978646</v>
       </c>
       <c r="G2" t="n">
-        <v>33951.59092978647</v>
+        <v>33951.59092978646</v>
       </c>
       <c r="H2" t="n">
-        <v>33951.59092978647</v>
+        <v>33951.59092978646</v>
       </c>
       <c r="I2" t="n">
         <v>33951.59092978646</v>
@@ -26338,22 +26340,22 @@
         <v>33951.59092978646</v>
       </c>
       <c r="K2" t="n">
-        <v>33951.59092978647</v>
+        <v>33951.59092978646</v>
       </c>
       <c r="L2" t="n">
         <v>33951.59092978646</v>
       </c>
       <c r="M2" t="n">
-        <v>33951.59092978646</v>
+        <v>33951.59092978647</v>
       </c>
       <c r="N2" t="n">
         <v>33951.59092978646</v>
       </c>
       <c r="O2" t="n">
-        <v>33951.59092978647</v>
+        <v>33951.59092978646</v>
       </c>
       <c r="P2" t="n">
-        <v>33951.59092978646</v>
+        <v>35262.06743225569</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>70299.82699721269</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>16975.79546489323</v>
       </c>
       <c r="P4" t="n">
-        <v>16975.79546489323</v>
+        <v>6381.339904761003</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2302.571349536697</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-16651.80453510676</v>
       </c>
       <c r="C6" t="n">
         <v>-16651.80453510677</v>
@@ -26528,19 +26530,19 @@
         <v>-16651.80453510676</v>
       </c>
       <c r="E6" t="n">
-        <v>16975.79546489323</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="F6" t="n">
         <v>16975.79546489324</v>
       </c>
       <c r="G6" t="n">
-        <v>16975.79546489324</v>
+        <v>16975.79546489323</v>
       </c>
       <c r="H6" t="n">
         <v>16975.79546489324</v>
       </c>
       <c r="I6" t="n">
-        <v>16975.79546489323</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="J6" t="n">
         <v>16975.79546489324</v>
@@ -26552,7 +26554,7 @@
         <v>16975.79546489324</v>
       </c>
       <c r="M6" t="n">
-        <v>16975.79546489323</v>
+        <v>16975.79546489324</v>
       </c>
       <c r="N6" t="n">
         <v>16975.79546489324</v>
@@ -26561,7 +26563,7 @@
         <v>16975.79546489324</v>
       </c>
       <c r="P6" t="n">
-        <v>16975.79546489324</v>
+        <v>-43721.67081925469</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>105.6225389695733</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>105.6225389695733</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.4246132219882339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.348570159687002</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>16.36990124070141</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>36.0385164497239</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>54.01239413648585</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>67.00715102890828</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>74.55836641544154</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>75.76479873241561</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>71.5425510062701</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>61.05991208843557</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>45.85345107598193</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.67261030571842</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.675873796056891</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.858744379253495</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03396905775905871</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2271881026892708</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.194158781235853</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.822046518029719</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21.46429350890168</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>36.68589638908283</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>49.32871501593137</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>54.05382897624944</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>43.3829632231819</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>29.00036202047604</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>14.10559114767245</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.219919363548515</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.9157274840852623</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01494658570324151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1904668735516895</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.693423657577749</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.72785834280899</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>13.46600796010445</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.12878767264174</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>28.31722954603936</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>29.85654818774346</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>29.14662620450537</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>26.92162681801517</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>23.03610259756069</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.94900338440556</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.564083241696872</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.31931815089626</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.8138130051754003</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01038910219372853</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50214.1355136127</v>
+        <v>38442.78061259379</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22820328.59386845</v>
+        <v>22668979.22872371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20785327.95165949</v>
+        <v>20794688.49810569</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1763547.92407774</v>
+        <v>1766638.888072582</v>
       </c>
     </row>
     <row r="11">
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>37.28507488358404</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>35.12399553673127</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>28.47824703393654</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>18.73185804160391</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>17.14749202420371</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>21.64722461951303</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>32.58945119244859</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.18035332317012</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>60.63953250900509</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>29.90494529109833</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>19.13988639553256</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>6.785808794917685</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>3.697650023750555</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>10.87667177962185</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.69225648436268</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>44.89460795773296</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>37.96713772285098</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K46" t="n">
-        <v>30.12158188642509</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L46" t="n">
-        <v>26.31106434786214</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M46" t="n">
-        <v>26.40839431103658</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N46" t="n">
-        <v>22.56601930391407</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O46" t="n">
-        <v>29.15327125498115</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P46" t="n">
-        <v>32.74373904234409</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.41052227552</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2163880441079</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>303.4508422388722</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>69.11834381539616</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>124.2523906577833</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1256748333563</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4559177653259</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,13 +25958,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.6930234561154</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>67.84558205340525</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>12.71905894793251</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>102.6901904232857</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>156.8327176907766</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3623561674602</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.3874202901603</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>146.4179569850202</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>109.4547270939081</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>75.85590789965747</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>181.2085322879926</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>236.3394386278895</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9597768771433</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>147429.6096337837</v>
+        <v>152782.159184039</v>
       </c>
     </row>
   </sheetData>
@@ -26349,13 +26349,13 @@
         <v>33951.59092978647</v>
       </c>
       <c r="N2" t="n">
-        <v>33951.59092978646</v>
+        <v>33951.59092978647</v>
       </c>
       <c r="O2" t="n">
         <v>33951.59092978646</v>
       </c>
       <c r="P2" t="n">
-        <v>35262.06743225569</v>
+        <v>33951.59092978646</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>70299.82699721269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>16975.79546489323</v>
       </c>
       <c r="P4" t="n">
-        <v>6381.339904761003</v>
+        <v>16975.79546489323</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2302.571349536697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="C6" t="n">
-        <v>-16651.80453510677</v>
+        <v>-18038.11710164715</v>
       </c>
       <c r="D6" t="n">
-        <v>-16651.80453510676</v>
+        <v>-18038.11710164714</v>
       </c>
       <c r="E6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="F6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="G6" t="n">
-        <v>16975.79546489323</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="H6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="I6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="J6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="K6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="L6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835285</v>
       </c>
       <c r="M6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="N6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="O6" t="n">
-        <v>16975.79546489324</v>
+        <v>15589.48289835286</v>
       </c>
       <c r="P6" t="n">
-        <v>-43721.67081925469</v>
+        <v>15589.48289835284</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>105.6225389695733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>105.6225389695733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4246132219882339</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.348570159687002</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>16.36990124070141</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>36.0385164497239</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>54.01239413648585</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>67.00715102890828</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>74.55836641544154</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>75.76479873241561</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>71.5425510062701</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>61.05991208843557</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.85345107598193</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>26.67261030571842</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.675873796056891</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.858744379253495</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03396905775905871</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2271881026892708</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.194158781235853</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.822046518029719</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>21.46429350890168</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>36.68589638908283</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>49.32871501593137</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>54.05382897624944</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.3829632231819</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.00036202047604</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.10559114767245</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>4.219919363548515</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9157274840852623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01494658570324151</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1904668735516895</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.693423657577749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.72785834280899</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>13.46600796010445</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>22.12878767264174</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>28.31722954603936</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>29.85654818774346</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>29.14662620450537</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>26.92162681801517</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>23.03610259756069</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.94900338440556</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.564083241696872</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.31931815089626</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8138130051754003</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01038910219372853</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
